--- a/src/data/data_dia_2024.xlsx
+++ b/src/data/data_dia_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyect_Phyton\dia_media_la_2024\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyect_Phyton\Ensayos_simce_2024\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1EC954-80B0-4CD6-857C-4E558E0087CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5146A5FD-7425-4CCB-967F-995B6D07BE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="43">
   <si>
     <t>CURSO</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>FIN</t>
+  </si>
+  <si>
+    <t>INSUFICIENTE</t>
+  </si>
+  <si>
+    <t>ELEMENTAL</t>
+  </si>
+  <si>
+    <t>ADECUADO</t>
+  </si>
+  <si>
+    <t>MAYO</t>
+  </si>
+  <si>
+    <t>OCTUBRE</t>
+  </si>
+  <si>
+    <t>SIMCE 2023</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1735,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A16" sqref="A16:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1743,8 @@
     <col min="1" max="1" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="10" bestFit="1" customWidth="1"/>
@@ -1743,13 +1762,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
@@ -1766,509 +1785,287 @@
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E2" s="8">
-        <v>0.65517241379310343</v>
+        <v>0.64</v>
       </c>
       <c r="F2" s="8">
-        <v>0.34482758620689657</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G2" s="8">
-        <v>0.78448275862068972</v>
+        <v>0.53</v>
       </c>
       <c r="H2" s="8">
-        <v>0.6699448275862071</v>
+        <v>0.45</v>
       </c>
       <c r="I2" s="8">
-        <v>0.62068965517241381</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J2" s="8">
         <f>IFERROR(ROUND(AVERAGE(G2:I2),3),"")</f>
-        <v>0.69199999999999995</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8">
-        <v>5.8823529411764705E-2</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="8">
-        <v>0.67647058823529416</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F3" s="8">
-        <v>0.26470588235294118</v>
+        <v>0.24</v>
       </c>
       <c r="G3" s="8">
-        <v>0.81617647058823539</v>
+        <v>0.59</v>
       </c>
       <c r="H3" s="8">
-        <v>0.67507352941176479</v>
+        <v>0.43</v>
       </c>
       <c r="I3" s="8">
-        <v>0.65441176470588236</v>
+        <v>0.4</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ref="J3:J35" si="0">IFERROR(ROUND(AVERAGE(G3:I3),3),"")</f>
-        <v>0.71499999999999997</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D4" s="8">
-        <v>0.12820512820512819</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="8">
-        <v>0.71794871794871795</v>
+        <v>0.309</v>
       </c>
       <c r="F4" s="8">
-        <v>0.15384615384615385</v>
+        <v>0.191</v>
       </c>
       <c r="G4" s="8">
-        <v>0.71794871794871795</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="8">
-        <v>0.64345641025641043</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="8">
-        <v>0.63461538461538458</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" si="0"/>
-        <v>0.66500000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.8125</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.8046875</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.65624062500000035</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.5859375</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.68200000000000005</v>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.66666111111111126</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.64444444444444438</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.69199999999999995</v>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.69852941176470595</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.58262941176470606</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.48382352941176471</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.58799999999999997</v>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F8" s="8">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.57777666666666694</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.51666666666666661</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.60099999999999998</v>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="F9" s="8">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.68939393939393934</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.5483393939393939</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59399999999999997</v>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.69</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.623</v>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.10714285714285714</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.61</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.623</v>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0.44</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0.47</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.78</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0.44</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.61290322580645162</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.29032258064516131</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.82</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.64</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.73299999999999998</v>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8">
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.64516129032258063</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.29032258064516131</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.89</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.68</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.76700000000000002</v>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -2281,15 +2078,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -2302,15 +2093,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -2323,15 +2108,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2344,15 +2123,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2365,15 +2138,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -2386,15 +2153,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2407,15 +2168,9 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2428,15 +2183,9 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2449,15 +2198,9 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -2470,15 +2213,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2491,15 +2228,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -2512,15 +2243,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -2533,15 +2258,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -2554,15 +2273,9 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -2575,93 +2288,75 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8" t="str">
         <f t="shared" ref="D32:I35" si="1">IFERROR(AVERAGEIFS(D$2:D$31,$B$2:$B$31,$B32,$C$2:$C$31,$C32),"")</f>
-        <v>0.10992325689016866</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.71317218989315845</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.17690455321667287</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.74793012756731381</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.62751524696703265</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.58575543630888771</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="0"/>
-        <v>0.65400000000000003</v>
+        <v/>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.14533172408748446</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.71744837002901529</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.13721990588350036</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.75714285714285712</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.62571428571428578</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.53999999999999992</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="0"/>
-        <v>0.64100000000000001</v>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2692,15 +2387,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
